--- a/Tos.FoodProcs.Web/templates/gekkanSeihinKeikakuZenLine_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/gekkanSeihinKeikakuZenLine_vi.xlsx
@@ -24,15 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Bộ phận sản xuất:</t>
-  </si>
-  <si>
-    <t>Người xuất:</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất:</t>
-  </si>
-  <si>
     <t>Lý do ngày nghỉ</t>
   </si>
   <si>
@@ -72,16 +63,28 @@
     <t>Số lô sản phẩm</t>
   </si>
   <si>
-    <t xml:space="preserve">Tháng chỉ định: </t>
-  </si>
-  <si>
     <t>Kế hoạch sản xuất sản phẩm theo tháng (Trên toàn bộ dây chuyền)</t>
+  </si>
+  <si>
+    <t>Tháng chỉ định</t>
+  </si>
+  <si>
+    <t>Bộ phận sản xuất</t>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@* \:"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,9 +278,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -300,6 +300,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,23 +624,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27" style="13" customWidth="1"/>
-    <col min="7" max="7" width="22" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="13" customWidth="1"/>
-    <col min="10" max="11" width="16.21875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="23.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27" style="12" customWidth="1"/>
+    <col min="7" max="7" width="22" style="12" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="12" customWidth="1"/>
+    <col min="10" max="11" width="16.21875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -647,79 +653,79 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
